--- a/General info/MSlimits.xlsx
+++ b/General info/MSlimits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHubStorage\Astrometry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHubStorage\Astrometry\General info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,10 +384,13 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -413,34 +416,34 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.8</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D3" s="1">
         <f>(C4-C3)/(B4-B3)</f>
-        <v>5.7777777777777777</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E3" s="1">
         <f>C3-D3*B3</f>
-        <v>-1.2222222222222223</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="1">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D6" si="0">(C5-C4)/(B5-B4)</f>
-        <v>13.000000000000004</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E6" si="1">C4-D4*B4</f>
-        <v>-7.0000000000000036</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
